--- a/raw_data/20200818_saline/20200818_Sensor2_Test_16.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_16.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C49D9-42CA-40A8-824B-101F462B73C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>13872.618268</v>
       </c>
       <c r="B2" s="1">
-        <v>3.853505</v>
+        <v>3.8535050000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.190000</v>
+        <v>1244.19</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.224000</v>
+        <v>-308.22399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>13882.737186</v>
       </c>
       <c r="G2" s="1">
-        <v>3.856316</v>
+        <v>3.8563160000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.880000</v>
+        <v>1269.8800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.941000</v>
+        <v>-264.94099999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>13893.759248</v>
@@ -511,707 +927,707 @@
         <v>3.859378</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.984000</v>
+        <v>-202.98400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>13904.255620</v>
+        <v>13904.25562</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.862293</v>
+        <v>3.8622930000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.930000</v>
+        <v>1315.93</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.172000</v>
+        <v>-184.172</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>13914.836740</v>
+        <v>13914.836740000001</v>
       </c>
       <c r="V2" s="1">
-        <v>3.865232</v>
+        <v>3.8652319999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.550000</v>
+        <v>1328.55</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.217000</v>
+        <v>-171.21700000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>13925.252725</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.868126</v>
+        <v>3.8681260000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1345.590000</v>
+        <v>1345.59</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.264000</v>
+        <v>-169.26400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>13935.764439</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.871046</v>
+        <v>3.8710460000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1358.390000</v>
+        <v>1358.39</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.065000</v>
+        <v>-179.065</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>13946.183897</v>
+        <v>13946.183897000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.873940</v>
+        <v>3.8739400000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1378.930000</v>
+        <v>1378.93</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.198000</v>
+        <v>-209.19800000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>13956.740782</v>
+        <v>13956.740782000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.876872</v>
+        <v>3.8768720000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1400.480000</v>
+        <v>1400.48</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.418000</v>
+        <v>-253.41800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>13967.725645</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.879924</v>
+        <v>3.8799239999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1425.070000</v>
+        <v>1425.07</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.810000</v>
+        <v>-313.81</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>13978.813246</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.883004</v>
+        <v>3.8830040000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.410000</v>
+        <v>1444.41</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.255000</v>
+        <v>-366.255</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>13989.758464</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.886044</v>
+        <v>3.8860440000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1529.680000</v>
+        <v>1529.68</v>
       </c>
       <c r="BG2" s="1">
-        <v>-616.325000</v>
+        <v>-616.32500000000005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>14000.480978</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.889022</v>
+        <v>3.8890220000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1684.060000</v>
+        <v>1684.06</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1064.610000</v>
+        <v>-1064.6099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>14011.648372</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.892125</v>
+        <v>3.8921250000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.940000</v>
+        <v>1978.94</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1842.560000</v>
+        <v>-1842.56</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>14023.195747</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.895332</v>
+        <v>3.8953319999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.070000</v>
+        <v>2366.0700000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2742.660000</v>
+        <v>-2742.66</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>14033.904357</v>
+        <v>14033.904356999999</v>
       </c>
       <c r="BY2" s="1">
         <v>3.898307</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2854.850000</v>
+        <v>2854.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3723.520000</v>
+        <v>-3723.52</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>14045.567287</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.901546</v>
+        <v>3.9015460000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4283.570000</v>
+        <v>4283.57</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6096.660000</v>
+        <v>-6096.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>13872.726396</v>
       </c>
       <c r="B3" s="1">
-        <v>3.853535</v>
+        <v>3.8535349999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.101000</v>
+        <v>-308.101</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>13883.113911</v>
       </c>
       <c r="G3" s="1">
-        <v>3.856421</v>
+        <v>3.8564210000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.766000</v>
+        <v>-264.76600000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>13894.141690</v>
+        <v>13894.14169</v>
       </c>
       <c r="L3" s="1">
-        <v>3.859484</v>
+        <v>3.8594840000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.380000</v>
+        <v>1304.3800000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.453000</v>
+        <v>-202.453</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>13904.633041</v>
+        <v>13904.633040999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.862398</v>
+        <v>3.8623980000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.890000</v>
+        <v>1315.89</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.285000</v>
+        <v>-184.285</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>13915.554946</v>
       </c>
       <c r="V3" s="1">
-        <v>3.865432</v>
+        <v>3.8654320000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.410000</v>
+        <v>1328.41</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.131000</v>
+        <v>-171.131</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>13925.606373</v>
+        <v>13925.606373000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.868224</v>
+        <v>3.8682240000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1345.710000</v>
+        <v>1345.71</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.077000</v>
+        <v>-169.077</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>13936.111175</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.871142</v>
+        <v>3.8711419999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1358.410000</v>
+        <v>1358.41</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.029000</v>
+        <v>-179.029</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>13946.543001</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.874040</v>
+        <v>3.8740399999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1378.900000</v>
+        <v>1378.9</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.217000</v>
+        <v>-209.21700000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>13957.441595</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.877067</v>
+        <v>3.8770669999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1400.520000</v>
+        <v>1400.52</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.373000</v>
+        <v>-253.37299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>13968.443365</v>
+        <v>13968.443364999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.880123</v>
+        <v>3.8801230000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.790000</v>
+        <v>-313.79000000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>13979.225887</v>
+        <v>13979.225887000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.883118</v>
+        <v>3.8831180000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.400000</v>
+        <v>1444.4</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.229000</v>
+        <v>-366.22899999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>13990.142831</v>
+        <v>13990.142830999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.886151</v>
+        <v>3.8861509999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1529.670000</v>
+        <v>1529.67</v>
       </c>
       <c r="BG3" s="1">
-        <v>-616.241000</v>
+        <v>-616.24099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>14000.853559</v>
+        <v>14000.853558999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.889126</v>
+        <v>3.8891260000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.910000</v>
+        <v>1683.91</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1064.710000</v>
+        <v>-1064.71</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>14012.069972</v>
+        <v>14012.069971999999</v>
       </c>
       <c r="BO3" s="1">
         <v>3.892242</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.740000</v>
+        <v>1978.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1842.860000</v>
+        <v>-1842.86</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>14023.694707</v>
+        <v>14023.694707000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.895471</v>
+        <v>3.8954710000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.280000</v>
+        <v>2365.2800000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2742.620000</v>
+        <v>-2742.62</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>14034.377045</v>
+        <v>14034.377044999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.898438</v>
+        <v>3.8984380000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.450000</v>
+        <v>2855.45</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3723.130000</v>
+        <v>-3723.13</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>14045.851526</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.901625</v>
+        <v>3.9016250000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4300.090000</v>
+        <v>4300.09</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6099.800000</v>
+        <v>-6099.8</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>13873.064797</v>
+        <v>13873.064797000001</v>
       </c>
       <c r="B4" s="1">
-        <v>3.853629</v>
+        <v>3.8536290000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.073000</v>
+        <v>-308.07299999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>13883.455891</v>
       </c>
       <c r="G4" s="1">
-        <v>3.856516</v>
+        <v>3.8565160000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.422000</v>
+        <v>-265.42200000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>13894.831597</v>
       </c>
       <c r="L4" s="1">
-        <v>3.859675</v>
+        <v>3.8596750000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.390000</v>
+        <v>1304.3900000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.417000</v>
+        <v>-202.417</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>13905.327936</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.862591</v>
+        <v>3.8625910000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.830000</v>
+        <v>1315.83</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.294000</v>
+        <v>-184.29400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>13915.897185</v>
       </c>
       <c r="V4" s="1">
-        <v>3.865527</v>
+        <v>3.8655270000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.490000</v>
+        <v>1328.49</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.149000</v>
+        <v>-171.149</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>13925.951620</v>
+        <v>13925.95162</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.868320</v>
+        <v>3.8683200000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1345.590000</v>
+        <v>1345.59</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.239000</v>
+        <v>-169.239</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>13936.460359</v>
+        <v>13936.460359000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.871239</v>
+        <v>3.8712390000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1358.370000</v>
+        <v>1358.37</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.034000</v>
+        <v>-179.03399999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>13947.203176</v>
+        <v>13947.203176000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.874223</v>
+        <v>3.8742230000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1378.950000</v>
+        <v>1378.95</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.218000</v>
+        <v>-209.21799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>13957.855258</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.877182</v>
+        <v>3.8771819999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1400.490000</v>
+        <v>1400.49</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.367000</v>
+        <v>-253.36699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>13968.858012</v>
+        <v>13968.858012000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.880238</v>
+        <v>3.8802379999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.775000</v>
+        <v>-313.77499999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>13979.585485</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.883218</v>
+        <v>3.8832179999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.400000</v>
+        <v>1444.4</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.219000</v>
+        <v>-366.21899999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>13990.504261</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.886251</v>
+        <v>3.8862510000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1529.710000</v>
+        <v>1529.71</v>
       </c>
       <c r="BG4" s="1">
-        <v>-616.203000</v>
+        <v>-616.20299999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>14001.230898</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.889231</v>
+        <v>3.8892310000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.930000</v>
+        <v>1683.93</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1064.690000</v>
+        <v>-1064.69</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>14012.491571</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.892359</v>
+        <v>3.8923589999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.740000</v>
+        <v>1978.74</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1842.760000</v>
+        <v>-1842.76</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>14024.131186</v>
+        <v>14024.131186000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.895592</v>
+        <v>3.8955920000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2365.300000</v>
+        <v>2365.3000000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2741.840000</v>
+        <v>-2741.84</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>14034.809061</v>
@@ -1220,150 +1636,150 @@
         <v>3.898558</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2854.740000</v>
+        <v>2854.74</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3722.960000</v>
+        <v>-3722.96</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>14046.372293</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.901770</v>
+        <v>3.90177</v>
       </c>
       <c r="CE4" s="1">
-        <v>4305.860000</v>
+        <v>4305.8599999999997</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6092.120000</v>
+        <v>-6092.12</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>13873.406409</v>
+        <v>13873.406408999999</v>
       </c>
       <c r="B5" s="1">
-        <v>3.853724</v>
+        <v>3.8537240000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.100000</v>
+        <v>1244.0999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.146000</v>
+        <v>-308.14600000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>13884.144795</v>
       </c>
       <c r="G5" s="1">
-        <v>3.856707</v>
+        <v>3.8567070000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.340000</v>
+        <v>-265.33999999999997</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>13895.177309</v>
+        <v>13895.177309000001</v>
       </c>
       <c r="L5" s="1">
-        <v>3.859771</v>
+        <v>3.8597709999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.060000</v>
+        <v>1304.06</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.721000</v>
+        <v>-202.721</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>13905.678112</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.862688</v>
+        <v>3.8626879999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.780000</v>
+        <v>1315.78</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.296000</v>
+        <v>-184.29599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>13916.241409</v>
       </c>
       <c r="V5" s="1">
-        <v>3.865623</v>
+        <v>3.8656229999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.560000</v>
+        <v>1328.56</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.315000</v>
+        <v>-171.315</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>13926.602339</v>
+        <v>13926.602338999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.868501</v>
+        <v>3.8685010000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1345.520000</v>
+        <v>1345.52</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.188000</v>
+        <v>-169.18799999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>13937.116571</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.871421</v>
+        <v>3.8714209999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1358.370000</v>
+        <v>1358.37</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.083000</v>
+        <v>-179.083</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>13947.590551</v>
+        <v>13947.590550999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.874331</v>
+        <v>3.8743310000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1378.900000</v>
+        <v>1378.9</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.202000</v>
+        <v>-209.202</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>13958.211915</v>
@@ -1372,210 +1788,210 @@
         <v>3.877281</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.370000</v>
+        <v>-253.37</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>13969.254315</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.880348</v>
+        <v>3.8803480000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.798000</v>
+        <v>-313.798</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>13979.941645</v>
+        <v>13979.941645000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.883317</v>
+        <v>3.8833169999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.254000</v>
+        <v>-366.25400000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>13990.937609</v>
+        <v>13990.937609000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.886372</v>
+        <v>3.8863720000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1529.660000</v>
+        <v>1529.66</v>
       </c>
       <c r="BG5" s="1">
-        <v>-616.229000</v>
+        <v>-616.22900000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>14001.649024</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.889347</v>
+        <v>3.8893469999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.990000</v>
+        <v>1683.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1064.710000</v>
+        <v>-1064.71</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>14012.891841</v>
+        <v>14012.891841000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.892470</v>
+        <v>3.8924699999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.780000</v>
+        <v>1978.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1842.660000</v>
+        <v>-1842.66</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>14024.546835</v>
+        <v>14024.546834999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.895707</v>
+        <v>3.8957069999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>2365.000000</v>
+        <v>2365</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2741.520000</v>
+        <v>-2741.52</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>14035.230693</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.898675</v>
+        <v>3.8986749999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2854.870000</v>
+        <v>2854.87</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3723.300000</v>
+        <v>-3723.3</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>14046.918884</v>
+        <v>14046.918884000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.901922</v>
+        <v>3.9019219999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4290.620000</v>
+        <v>4290.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6100.300000</v>
+        <v>-6100.3</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>13874.091386</v>
       </c>
       <c r="B6" s="1">
-        <v>3.853914</v>
+        <v>3.8539140000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.162000</v>
+        <v>-308.16199999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>13884.491995</v>
       </c>
       <c r="G6" s="1">
-        <v>3.856803</v>
+        <v>3.8568030000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.160000</v>
+        <v>1270.1600000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-265.264000</v>
+        <v>-265.26400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>13895.521069</v>
       </c>
       <c r="L6" s="1">
-        <v>3.859867</v>
+        <v>3.8598669999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.630000</v>
+        <v>1304.6300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.088000</v>
+        <v>-202.08799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>13906.028571</v>
+        <v>13906.028571000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.862786</v>
+        <v>3.8627859999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1315.740000</v>
+        <v>1315.74</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.256000</v>
+        <v>-184.256</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>13916.890208</v>
+        <v>13916.890208000001</v>
       </c>
       <c r="V6" s="1">
-        <v>3.865803</v>
+        <v>3.8658030000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.500000</v>
+        <v>1328.5</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.329000</v>
+        <v>-171.32900000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>13926.998674</v>
@@ -1584,103 +2000,103 @@
         <v>3.868611</v>
       </c>
       <c r="AB6" s="1">
-        <v>1345.420000</v>
+        <v>1345.42</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.217000</v>
+        <v>-169.21700000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>13937.490053</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.871525</v>
+        <v>3.8715250000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1358.420000</v>
+        <v>1358.42</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.052000</v>
+        <v>-179.05199999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>13947.937283</v>
+        <v>13947.937282999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.874427</v>
+        <v>3.8744269999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1378.900000</v>
+        <v>1378.9</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.225000</v>
+        <v>-209.22499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>13958.573962</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.877382</v>
+        <v>3.8773819999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.347000</v>
+        <v>-253.34700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>13969.616395</v>
+        <v>13969.616394999999</v>
       </c>
       <c r="AU6" s="1">
         <v>3.880449</v>
       </c>
       <c r="AV6" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.800000</v>
+        <v>-313.8</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>13980.366220</v>
+        <v>13980.36622</v>
       </c>
       <c r="AZ6" s="1">
         <v>3.883435</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.227000</v>
+        <v>-366.22699999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>13991.225134</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.886451</v>
+        <v>3.8864510000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1529.660000</v>
+        <v>1529.66</v>
       </c>
       <c r="BG6" s="1">
-        <v>-616.237000</v>
+        <v>-616.23699999999997</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>14002.007135</v>
@@ -1689,13 +2105,13 @@
         <v>3.889446</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.930000</v>
+        <v>1683.93</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1064.690000</v>
+        <v>-1064.69</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>14013.286161</v>
@@ -1704,28 +2120,28 @@
         <v>3.892579</v>
       </c>
       <c r="BP6" s="1">
-        <v>1978.580000</v>
+        <v>1978.58</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1842.870000</v>
+        <v>-1842.87</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>14024.958513</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.895822</v>
+        <v>3.8958219999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.630000</v>
+        <v>2365.63</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2740.660000</v>
+        <v>-2740.66</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>14035.653251</v>
@@ -1734,31 +2150,31 @@
         <v>3.898793</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2854.530000</v>
+        <v>2854.53</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3723.390000</v>
+        <v>-3723.39</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>14047.448614</v>
+        <v>14047.448614000001</v>
       </c>
       <c r="CD6" s="1">
         <v>3.902069</v>
       </c>
       <c r="CE6" s="1">
-        <v>4304.150000</v>
+        <v>4304.1499999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6090.540000</v>
+        <v>-6090.54</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>13874.430648</v>
       </c>
@@ -1766,390 +2182,390 @@
         <v>3.854009</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.210000</v>
+        <v>1244.21</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.149000</v>
+        <v>-308.149</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>13884.836747</v>
+        <v>13884.836746999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3.856899</v>
+        <v>3.8568989999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.056000</v>
+        <v>-265.05599999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>13896.178732</v>
       </c>
       <c r="L7" s="1">
-        <v>3.860050</v>
+        <v>3.8600500000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.250000</v>
+        <v>1304.25</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.371000</v>
+        <v>-202.37100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>13906.692926</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.862970</v>
+        <v>3.8629699999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.680000</v>
+        <v>1315.68</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.325000</v>
+        <v>-184.32499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>13917.269617</v>
       </c>
       <c r="V7" s="1">
-        <v>3.865908</v>
+        <v>3.8659080000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.500000</v>
+        <v>1328.5</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.159000</v>
+        <v>-171.15899999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>13927.345346</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.868707</v>
+        <v>3.8687070000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1345.420000</v>
+        <v>1345.42</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.015000</v>
+        <v>-169.01499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>13937.836230</v>
+        <v>13937.836230000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.871621</v>
+        <v>3.8716210000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1358.440000</v>
+        <v>1358.44</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.083000</v>
+        <v>-179.083</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>13948.286438</v>
+        <v>13948.286437999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.874524</v>
+        <v>3.8745240000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1378.930000</v>
+        <v>1378.93</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.215000</v>
+        <v>-209.215</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>13958.998568</v>
+        <v>13958.998568000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.877500</v>
+        <v>3.8774999999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1400.520000</v>
+        <v>1400.52</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.377000</v>
+        <v>-253.37700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>13970.045434</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.880568</v>
+        <v>3.8805679999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.767000</v>
+        <v>-313.767</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>13980.659324</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.883516</v>
+        <v>3.8835160000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.380000</v>
+        <v>1444.38</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.226000</v>
+        <v>-366.226</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>13991.585725</v>
+        <v>13991.585725000001</v>
       </c>
       <c r="BE7" s="1">
         <v>3.886552</v>
       </c>
       <c r="BF7" s="1">
-        <v>1529.660000</v>
+        <v>1529.66</v>
       </c>
       <c r="BG7" s="1">
-        <v>-616.284000</v>
+        <v>-616.28399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>14002.384095</v>
+        <v>14002.384094999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>3.889551</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.930000</v>
+        <v>1683.93</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1064.710000</v>
+        <v>-1064.71</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>14013.708752</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.892697</v>
+        <v>3.8926970000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1978.490000</v>
+        <v>1978.49</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1842.560000</v>
+        <v>-1842.56</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>14025.382097</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.895939</v>
+        <v>3.8959389999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>2365.310000</v>
+        <v>2365.31</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2740.250000</v>
+        <v>-2740.25</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>14036.079347</v>
+        <v>14036.079347000001</v>
       </c>
       <c r="BY7" s="1">
         <v>3.898911</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2855.730000</v>
+        <v>2855.73</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3723.900000</v>
+        <v>-3723.9</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>14047.967923</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.902213</v>
+        <v>3.9022130000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4291.670000</v>
+        <v>4291.67</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6078.310000</v>
+        <v>-6078.31</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>13875.081895</v>
+        <v>13875.081894999999</v>
       </c>
       <c r="B8" s="1">
-        <v>3.854189</v>
+        <v>3.8541889999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.420000</v>
+        <v>1244.42</v>
       </c>
       <c r="D8" s="1">
-        <v>-307.883000</v>
+        <v>-307.88299999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>13885.492922</v>
+        <v>13885.492921999999</v>
       </c>
       <c r="G8" s="1">
         <v>3.857081</v>
       </c>
       <c r="H8" s="1">
-        <v>1269.970000</v>
+        <v>1269.97</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.445000</v>
+        <v>-265.44499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>13896.560192</v>
+        <v>13896.560192000001</v>
       </c>
       <c r="L8" s="1">
-        <v>3.860156</v>
+        <v>3.8601559999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.120000</v>
+        <v>1304.1199999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.283000</v>
+        <v>-202.28299999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>13907.124445</v>
+        <v>13907.124444999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.863090</v>
+        <v>3.8630900000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.690000</v>
+        <v>1315.69</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.433000</v>
+        <v>-184.43299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>13917.614336</v>
+        <v>13917.614336000001</v>
       </c>
       <c r="V8" s="1">
-        <v>3.866004</v>
+        <v>3.8660040000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.340000</v>
+        <v>1328.34</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.174000</v>
+        <v>-171.17400000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>13927.696018</v>
+        <v>13927.696018000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.868804</v>
+        <v>3.8688039999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1345.510000</v>
+        <v>1345.51</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.123000</v>
+        <v>-169.12299999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>13938.178500</v>
+        <v>13938.1785</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.871716</v>
+        <v>3.8717160000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1358.470000</v>
+        <v>1358.47</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.051000</v>
+        <v>-179.05099999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>13948.707083</v>
+        <v>13948.707082999999</v>
       </c>
       <c r="AK8" s="1">
         <v>3.874641</v>
       </c>
       <c r="AL8" s="1">
-        <v>1378.930000</v>
+        <v>1378.93</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.168000</v>
+        <v>-209.16800000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>13959.295144</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.877582</v>
+        <v>3.8775819999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1400.520000</v>
+        <v>1400.52</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.368000</v>
+        <v>-253.36799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>13970.347995</v>
@@ -2158,13 +2574,13 @@
         <v>3.880652</v>
       </c>
       <c r="AV8" s="1">
-        <v>1425.010000</v>
+        <v>1425.01</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.805000</v>
+        <v>-313.80500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>13981.018923</v>
@@ -2173,315 +2589,315 @@
         <v>3.883616</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.198000</v>
+        <v>-366.19799999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>13991.946318</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.886652</v>
+        <v>3.8866520000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1529.660000</v>
+        <v>1529.66</v>
       </c>
       <c r="BG8" s="1">
-        <v>-616.214000</v>
+        <v>-616.21400000000006</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>14002.758113</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.889655</v>
+        <v>3.8896549999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.920000</v>
+        <v>1683.92</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1064.610000</v>
+        <v>-1064.6099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>14014.524208</v>
+        <v>14014.524208000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.892923</v>
+        <v>3.8929230000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.640000</v>
+        <v>1978.64</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1842.680000</v>
+        <v>-1842.68</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>14025.789312</v>
+        <v>14025.789312000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.896053</v>
+        <v>3.8960530000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.970000</v>
+        <v>2365.9699999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2739.740000</v>
+        <v>-2739.74</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>14036.493474</v>
+        <v>14036.493474000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.899026</v>
+        <v>3.8990260000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2854.440000</v>
+        <v>2854.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3722.990000</v>
+        <v>-3722.99</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>14048.484754</v>
+        <v>14048.484753999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.902357</v>
+        <v>3.9023569999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4281.010000</v>
+        <v>4281.01</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6092.950000</v>
+        <v>-6092.95</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>13875.455880</v>
+        <v>13875.45588</v>
       </c>
       <c r="B9" s="1">
-        <v>3.854293</v>
+        <v>3.8542930000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.160000</v>
+        <v>1244.1600000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.058000</v>
+        <v>-308.05799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>13885.867403</v>
       </c>
       <c r="G9" s="1">
-        <v>3.857185</v>
+        <v>3.8571849999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.040000</v>
+        <v>1270.04</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.649000</v>
+        <v>-264.649</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>13896.903915</v>
+        <v>13896.903915000001</v>
       </c>
       <c r="L9" s="1">
-        <v>3.860251</v>
+        <v>3.8602509999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.920000</v>
+        <v>1303.92</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.577000</v>
+        <v>-202.577</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>13907.411133</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.863170</v>
+        <v>3.8631700000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.680000</v>
+        <v>1315.68</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.380000</v>
+        <v>-184.38</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>13917.960837</v>
+        <v>13917.960837000001</v>
       </c>
       <c r="V9" s="1">
-        <v>3.866100</v>
+        <v>3.8660999999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.540000</v>
+        <v>1328.54</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.072000</v>
+        <v>-171.072</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>13928.117619</v>
+        <v>13928.117619000001</v>
       </c>
       <c r="AA9" s="1">
         <v>3.868922</v>
       </c>
       <c r="AB9" s="1">
-        <v>1345.710000</v>
+        <v>1345.71</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.107000</v>
+        <v>-169.107</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>13938.601061</v>
+        <v>13938.601060999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.871834</v>
+        <v>3.8718340000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1358.410000</v>
+        <v>1358.41</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.022000</v>
+        <v>-179.02199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>13948.986327</v>
+        <v>13948.986327000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.874718</v>
+        <v>3.8747180000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1378.910000</v>
+        <v>1378.91</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.187000</v>
+        <v>-209.18700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>13959.654781</v>
+        <v>13959.654780999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.877682</v>
+        <v>3.8776820000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1400.480000</v>
+        <v>1400.48</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.356000</v>
+        <v>-253.35599999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>13970.710570</v>
+        <v>13970.710569999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.880753</v>
+        <v>3.8807529999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.785000</v>
+        <v>-313.78500000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>13981.376539</v>
+        <v>13981.376539000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.883716</v>
+        <v>3.8837160000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.178000</v>
+        <v>-366.178</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>13992.672428</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.886853</v>
+        <v>3.8868529999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1529.600000</v>
+        <v>1529.6</v>
       </c>
       <c r="BG9" s="1">
-        <v>-616.190000</v>
+        <v>-616.19000000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>14003.533823</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.889871</v>
+        <v>3.8898709999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.860000</v>
+        <v>1683.86</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1064.610000</v>
+        <v>-1064.6099999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>14014.943294</v>
+        <v>14014.943294000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.893040</v>
+        <v>3.8930400000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1978.540000</v>
+        <v>1978.54</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1842.630000</v>
+        <v>-1842.63</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>14026.207935</v>
@@ -2490,75 +2906,75 @@
         <v>3.896169</v>
       </c>
       <c r="BU9" s="1">
-        <v>2366.120000</v>
+        <v>2366.12</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2739.140000</v>
+        <v>-2739.14</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>14036.951281</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.899153</v>
+        <v>3.8991530000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.940000</v>
+        <v>2854.94</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3723.830000</v>
+        <v>-3723.83</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>14049.310097</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.902586</v>
+        <v>3.9025859999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4296.840000</v>
+        <v>4296.84</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6101.680000</v>
+        <v>-6101.68</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>13875.801127</v>
+        <v>13875.801127000001</v>
       </c>
       <c r="B10" s="1">
-        <v>3.854389</v>
+        <v>3.8543889999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.769000</v>
+        <v>-307.76900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>13886.210665</v>
+        <v>13886.210665000001</v>
       </c>
       <c r="G10" s="1">
         <v>3.857281</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.210000</v>
+        <v>1270.21</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.142000</v>
+        <v>-265.142</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>13897.248602</v>
@@ -2567,73 +2983,73 @@
         <v>3.860347</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.500000</v>
+        <v>1304.5</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.180000</v>
+        <v>-202.18</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>13907.859021</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.863294</v>
+        <v>3.8632939999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.510000</v>
+        <v>1315.51</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.482000</v>
+        <v>-184.482</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>13918.376693</v>
       </c>
       <c r="V10" s="1">
-        <v>3.866216</v>
+        <v>3.8662160000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.420000</v>
+        <v>1328.42</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.155000</v>
+        <v>-171.155</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>13928.408801</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.869002</v>
+        <v>3.8690020000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1345.930000</v>
+        <v>1345.93</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.062000</v>
+        <v>-169.06200000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>13938.874851</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.871910</v>
+        <v>3.8719100000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1358.410000</v>
+        <v>1358.41</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.029000</v>
+        <v>-179.029</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>13949.336469</v>
@@ -2642,694 +3058,694 @@
         <v>3.874816</v>
       </c>
       <c r="AL10" s="1">
-        <v>1378.890000</v>
+        <v>1378.89</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.180000</v>
+        <v>-209.18</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>13960.014343</v>
+        <v>13960.014343000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.877782</v>
+        <v>3.8777819999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.384000</v>
+        <v>-253.38399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>13971.075624</v>
+        <v>13971.075623999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.880854</v>
+        <v>3.8808539999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1425.080000</v>
+        <v>1425.08</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.754000</v>
+        <v>-313.75400000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>13982.098714</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.883916</v>
+        <v>3.8839160000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.218000</v>
+        <v>-366.21800000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>13993.060795</v>
+        <v>13993.060794999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.886961</v>
+        <v>3.8869609999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1529.610000</v>
+        <v>1529.61</v>
       </c>
       <c r="BG10" s="1">
-        <v>-616.199000</v>
+        <v>-616.19899999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>14003.910317</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.889975</v>
+        <v>3.8899750000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.940000</v>
+        <v>1683.94</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1064.610000</v>
+        <v>-1064.6099999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>14015.335423</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.893149</v>
+        <v>3.8931490000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1978.490000</v>
+        <v>1978.49</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1842.470000</v>
+        <v>-1842.47</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>14026.930142</v>
+        <v>14026.930141999999</v>
       </c>
       <c r="BT10" s="1">
         <v>3.896369</v>
       </c>
       <c r="BU10" s="1">
-        <v>2366.730000</v>
+        <v>2366.73</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2739.500000</v>
+        <v>-2739.5</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>14037.720120</v>
+        <v>14037.72012</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.899367</v>
+        <v>3.8993669999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2854.700000</v>
+        <v>2854.7</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3723.730000</v>
+        <v>-3723.73</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>14049.501057</v>
+        <v>14049.501056999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.902639</v>
+        <v>3.9026390000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>4304.690000</v>
+        <v>4304.6899999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6086.280000</v>
+        <v>-6086.28</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>13876.142342</v>
+        <v>13876.142341999999</v>
       </c>
       <c r="B11" s="1">
-        <v>3.854484</v>
+        <v>3.8544839999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.600000</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.123000</v>
+        <v>-308.12299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>13886.777560</v>
+        <v>13886.77756</v>
       </c>
       <c r="G11" s="1">
-        <v>3.857438</v>
+        <v>3.8574380000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.158000</v>
+        <v>-264.15800000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>13897.664762</v>
       </c>
       <c r="L11" s="1">
-        <v>3.860462</v>
+        <v>3.8604620000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.590000</v>
+        <v>1304.5899999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.226000</v>
+        <v>-202.226</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>13908.132843</v>
+        <v>13908.132842999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.863370</v>
+        <v>3.8633700000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.680000</v>
+        <v>1315.68</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.366000</v>
+        <v>-184.36600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>13918.667870</v>
+        <v>13918.667869999999</v>
       </c>
       <c r="V11" s="1">
-        <v>3.866297</v>
+        <v>3.8662969999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1328.450000</v>
+        <v>1328.45</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.171000</v>
+        <v>-171.17099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>13928.756960</v>
+        <v>13928.756960000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.869099</v>
+        <v>3.8690989999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1345.550000</v>
+        <v>1345.55</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.177000</v>
+        <v>-169.17699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>13939.218580</v>
+        <v>13939.218580000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.872005</v>
+        <v>3.8720050000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1358.420000</v>
+        <v>1358.42</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.989000</v>
+        <v>-178.989</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>13949.685669</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.874913</v>
+        <v>3.8749129999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1378.910000</v>
+        <v>1378.91</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.189000</v>
+        <v>-209.18899999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>13960.735564</v>
+        <v>13960.735564000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.877982</v>
+        <v>3.8779819999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1400.480000</v>
+        <v>1400.48</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.371000</v>
+        <v>-253.37100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>13971.806059</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.881057</v>
+        <v>3.8810570000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.780000</v>
+        <v>-313.77999999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>13982.453385</v>
+        <v>13982.453385000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.884015</v>
+        <v>3.8840150000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.216000</v>
+        <v>-366.21600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>13993.424396</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.887062</v>
+        <v>3.8870619999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1529.660000</v>
+        <v>1529.66</v>
       </c>
       <c r="BG11" s="1">
-        <v>-616.205000</v>
+        <v>-616.20500000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>14004.283308</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.890079</v>
+        <v>3.8900790000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1064.640000</v>
+        <v>-1064.6400000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>14016.069709</v>
+        <v>14016.069708999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.893353</v>
+        <v>3.8933529999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.520000</v>
+        <v>1978.52</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1842.530000</v>
+        <v>-1842.53</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>14027.053615</v>
+        <v>14027.053615000001</v>
       </c>
       <c r="BT11" s="1">
         <v>3.896404</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.480000</v>
+        <v>2367.48</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2739.040000</v>
+        <v>-2739.04</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>14037.851522</v>
+        <v>14037.851522000001</v>
       </c>
       <c r="BY11" s="1">
         <v>3.899403</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2854.980000</v>
+        <v>2854.98</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3723.360000</v>
+        <v>-3723.36</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>14050.037766</v>
+        <v>14050.037765999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.902788</v>
+        <v>3.9027880000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4284.370000</v>
+        <v>4284.37</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6091.340000</v>
+        <v>-6091.34</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>13876.566926</v>
       </c>
       <c r="B12" s="1">
-        <v>3.854602</v>
+        <v>3.8546019999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.889000</v>
+        <v>-307.88900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>13887.199657</v>
+        <v>13887.199656999999</v>
       </c>
       <c r="G12" s="1">
-        <v>3.857555</v>
+        <v>3.8575550000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.600000</v>
+        <v>1268.5999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.595000</v>
+        <v>-264.59500000000003</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>13897.943001</v>
       </c>
       <c r="L12" s="1">
-        <v>3.860540</v>
+        <v>3.8605399999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.700000</v>
+        <v>1304.7</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.055000</v>
+        <v>-202.05500000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>13908.484972</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.863468</v>
+        <v>3.8634680000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.730000</v>
+        <v>1315.73</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.292000</v>
+        <v>-184.292</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>13919.008589</v>
+        <v>13919.008588999999</v>
       </c>
       <c r="V12" s="1">
-        <v>3.866391</v>
+        <v>3.8663910000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.470000</v>
+        <v>1328.47</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.138000</v>
+        <v>-171.13800000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>13929.107632</v>
+        <v>13929.107631999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.869197</v>
+        <v>3.8691970000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1345.530000</v>
+        <v>1345.53</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.021000</v>
+        <v>-169.02099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>13939.562306</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.872101</v>
+        <v>3.8721009999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.019000</v>
+        <v>-179.01900000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>13950.381081</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.875106</v>
+        <v>3.8751060000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1378.940000</v>
+        <v>1378.94</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.176000</v>
+        <v>-209.17599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>13961.122903</v>
+        <v>13961.122902999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.878090</v>
+        <v>3.8780899999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.364000</v>
+        <v>-253.364</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>13972.194139</v>
+        <v>13972.194138999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.881165</v>
+        <v>3.8811650000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.758000</v>
+        <v>-313.75799999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>13982.814937</v>
+        <v>13982.814936999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>3.884115</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.340000</v>
+        <v>1444.34</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.223000</v>
+        <v>-366.22300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>13994.100441</v>
+        <v>13994.100441000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.887250</v>
+        <v>3.8872499999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG12" s="1">
-        <v>-616.183000</v>
+        <v>-616.18299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>14004.976685</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.890271</v>
+        <v>3.8902709999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1064.590000</v>
+        <v>-1064.5899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>14016.577612</v>
+        <v>14016.577611999999</v>
       </c>
       <c r="BO12" s="1">
         <v>3.893494</v>
       </c>
       <c r="BP12" s="1">
-        <v>1978.380000</v>
+        <v>1978.38</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1842.460000</v>
+        <v>-1842.46</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>14027.473231</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.896520</v>
+        <v>3.8965200000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2368.110000</v>
+        <v>2368.11</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2738.660000</v>
+        <v>-2738.66</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>14038.269152</v>
+        <v>14038.269152000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.899519</v>
+        <v>3.8995190000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.190000</v>
+        <v>2855.19</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3723.140000</v>
+        <v>-3723.14</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>14050.577872</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.902938</v>
+        <v>3.9029379999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>4301.480000</v>
+        <v>4301.4799999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6095.620000</v>
+        <v>-6095.62</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>13876.841205</v>
+        <v>13876.841205000001</v>
       </c>
       <c r="B13" s="1">
-        <v>3.854678</v>
+        <v>3.8546779999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.985000</v>
+        <v>-307.98500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>13887.470999</v>
+        <v>13887.470998999999</v>
       </c>
       <c r="G13" s="1">
         <v>3.857631</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.080000</v>
+        <v>1270.08</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.137000</v>
+        <v>-265.137</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>13898.289208</v>
@@ -3338,43 +3754,43 @@
         <v>3.860636</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.650000</v>
+        <v>1304.6500000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.193000</v>
+        <v>-202.19300000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>13908.832208</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.863565</v>
+        <v>3.8635649999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.730000</v>
+        <v>1315.73</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.413000</v>
+        <v>-184.41300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>13919.351820</v>
+        <v>13919.35182</v>
       </c>
       <c r="V13" s="1">
-        <v>3.866487</v>
+        <v>3.8664869999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.470000</v>
+        <v>1328.47</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.210000</v>
+        <v>-171.21</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>13929.801039</v>
@@ -3383,28 +3799,28 @@
         <v>3.869389</v>
       </c>
       <c r="AB13" s="1">
-        <v>1345.630000</v>
+        <v>1345.63</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.299000</v>
+        <v>-169.29900000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>13940.248807</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.872291</v>
+        <v>3.8722910000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1358.350000</v>
+        <v>1358.35</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.044000</v>
+        <v>-179.04400000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>13950.730264</v>
@@ -3413,255 +3829,255 @@
         <v>3.875203</v>
       </c>
       <c r="AL13" s="1">
-        <v>1378.900000</v>
+        <v>1378.9</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.209000</v>
+        <v>-209.209</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>13961.485477</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.878190</v>
+        <v>3.87819</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1400.490000</v>
+        <v>1400.49</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.371000</v>
+        <v>-253.37100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>13972.570108</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.881269</v>
+        <v>3.8812690000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1425.000000</v>
+        <v>1425</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.797000</v>
+        <v>-313.79700000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>13983.487016</v>
+        <v>13983.487015999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.884302</v>
+        <v>3.8843019999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.390000</v>
+        <v>1444.39</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.181000</v>
+        <v>-366.18099999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>13994.530971</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.887370</v>
+        <v>3.8873700000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1529.690000</v>
+        <v>1529.69</v>
       </c>
       <c r="BG13" s="1">
-        <v>-616.168000</v>
+        <v>-616.16800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>14005.441435</v>
+        <v>14005.441435000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.890400</v>
+        <v>3.8904000000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.870000</v>
+        <v>1683.87</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1064.550000</v>
+        <v>-1064.55</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>14016.992791</v>
+        <v>14016.992791000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.893609</v>
+        <v>3.8936090000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1978.460000</v>
+        <v>1978.46</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1842.580000</v>
+        <v>-1842.58</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>14027.903758</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.896640</v>
+        <v>3.8966400000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2368.580000</v>
+        <v>2368.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2739.220000</v>
+        <v>-2739.22</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>14038.694224</v>
+        <v>14038.694224000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.899637</v>
+        <v>3.8996369999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2854.370000</v>
+        <v>2854.37</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3723.090000</v>
+        <v>-3723.09</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>14051.115708</v>
+        <v>14051.115707999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.903088</v>
+        <v>3.9030879999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4287.550000</v>
+        <v>4287.55</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6077.600000</v>
+        <v>-6077.6</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>13877.184468</v>
+        <v>13877.184467999999</v>
       </c>
       <c r="B14" s="1">
-        <v>3.854773</v>
+        <v>3.8547729999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.227000</v>
+        <v>-308.22699999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>13887.819654</v>
+        <v>13887.819654000001</v>
       </c>
       <c r="G14" s="1">
-        <v>3.857728</v>
+        <v>3.8577279999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.070000</v>
+        <v>1270.07</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.881000</v>
+        <v>-264.88099999999997</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>13898.631944</v>
+        <v>13898.631944000001</v>
       </c>
       <c r="L14" s="1">
-        <v>3.860731</v>
+        <v>3.8607309999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.267000</v>
+        <v>-202.267</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>13909.532026</v>
+        <v>13909.532026000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.863759</v>
+        <v>3.8637589999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.720000</v>
+        <v>1315.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.529000</v>
+        <v>-184.529</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>13920.038317</v>
       </c>
       <c r="V14" s="1">
-        <v>3.866677</v>
+        <v>3.8666770000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.370000</v>
+        <v>1328.37</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.323000</v>
+        <v>-171.32300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>13930.150223</v>
+        <v>13930.150223000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.869486</v>
+        <v>3.8694860000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1345.690000</v>
+        <v>1345.69</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.252000</v>
+        <v>-169.25200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>13940.592120</v>
+        <v>13940.592119999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.872387</v>
+        <v>3.8723869999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1358.400000</v>
+        <v>1358.4</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.975000</v>
+        <v>-178.97499999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>13951.077464</v>
@@ -3670,133 +4086,133 @@
         <v>3.875299</v>
       </c>
       <c r="AL14" s="1">
-        <v>1378.920000</v>
+        <v>1378.92</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.176000</v>
+        <v>-209.17599999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>13962.163012</v>
+        <v>13962.163012000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.878379</v>
+        <v>3.8783789999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.377000</v>
+        <v>-253.37700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>13973.005790</v>
+        <v>13973.005789999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.881390</v>
+        <v>3.8813900000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1425.020000</v>
+        <v>1425.02</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.770000</v>
+        <v>-313.77</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>13983.889769</v>
+        <v>13983.889768999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>3.884414</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.225000</v>
+        <v>-366.22500000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>13994.895028</v>
+        <v>13994.895028000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.887471</v>
+        <v>3.8874710000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG14" s="1">
-        <v>-616.141000</v>
+        <v>-616.14099999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>14005.833274</v>
+        <v>14005.833274000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.890509</v>
+        <v>3.8905090000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.960000</v>
+        <v>1683.96</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1064.540000</v>
+        <v>-1064.54</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>14017.394029</v>
+        <v>14017.394028999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.893721</v>
+        <v>3.8937210000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1978.460000</v>
+        <v>1978.46</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1842.510000</v>
+        <v>-1842.51</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>14028.324861</v>
+        <v>14028.324860999999</v>
       </c>
       <c r="BT14" s="1">
         <v>3.896757</v>
       </c>
       <c r="BU14" s="1">
-        <v>2369.370000</v>
+        <v>2369.37</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2739.060000</v>
+        <v>-2739.06</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>14039.556302</v>
+        <v>14039.556302000001</v>
       </c>
       <c r="BY14" s="1">
         <v>3.899877</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.150000</v>
+        <v>2854.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3723.370000</v>
+        <v>-3723.37</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>14051.658158</v>
@@ -3805,90 +4221,90 @@
         <v>3.903238</v>
       </c>
       <c r="CE14" s="1">
-        <v>4288.980000</v>
+        <v>4288.9799999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6100.010000</v>
+        <v>-6100.01</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>13877.523732</v>
       </c>
       <c r="B15" s="1">
-        <v>3.854868</v>
+        <v>3.8548680000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.410000</v>
+        <v>1244.4100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.008000</v>
+        <v>-308.00799999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>13888.170859</v>
       </c>
       <c r="G15" s="1">
-        <v>3.857825</v>
+        <v>3.8578250000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.520000</v>
+        <v>1269.52</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.189000</v>
+        <v>-265.18900000000002</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>13899.327335</v>
       </c>
       <c r="L15" s="1">
-        <v>3.860924</v>
+        <v>3.8609239999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.030000</v>
+        <v>1304.03</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.468000</v>
+        <v>-202.46799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>13909.879226</v>
+        <v>13909.879225999999</v>
       </c>
       <c r="Q15" s="1">
         <v>3.863855</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.650000</v>
+        <v>1315.65</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.541000</v>
+        <v>-184.541</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>13920.383500</v>
+        <v>13920.3835</v>
       </c>
       <c r="V15" s="1">
-        <v>3.866773</v>
+        <v>3.8667729999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.420000</v>
+        <v>1328.42</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.220000</v>
+        <v>-171.22</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>13930.499902</v>
@@ -3897,375 +4313,375 @@
         <v>3.869583</v>
       </c>
       <c r="AB15" s="1">
-        <v>1345.560000</v>
+        <v>1345.56</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.284000</v>
+        <v>-169.28399999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>13941.245764</v>
+        <v>13941.245763999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.872568</v>
+        <v>3.8725679999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1358.370000</v>
+        <v>1358.37</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.047000</v>
+        <v>-179.047</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>13951.734626</v>
+        <v>13951.734625999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.875482</v>
+        <v>3.8754819999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1378.920000</v>
+        <v>1378.92</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.171000</v>
+        <v>-209.17099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>13962.587124</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.878496</v>
+        <v>3.8784960000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1400.480000</v>
+        <v>1400.48</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.339000</v>
+        <v>-253.339</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>13973.290261</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.881470</v>
+        <v>3.8814700000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.771000</v>
+        <v>-313.77100000000002</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>13984.273175</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.884520</v>
+        <v>3.8845200000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.340000</v>
+        <v>1444.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.219000</v>
+        <v>-366.21899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>13995.254602</v>
+        <v>13995.254602000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.887571</v>
+        <v>3.8875709999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1529.570000</v>
+        <v>1529.57</v>
       </c>
       <c r="BG15" s="1">
-        <v>-616.132000</v>
+        <v>-616.13199999999995</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>14006.373914</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.890659</v>
+        <v>3.8906589999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1064.610000</v>
+        <v>-1064.6099999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>14017.819104</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.893839</v>
+        <v>3.8938389999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1978.350000</v>
+        <v>1978.35</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1842.430000</v>
+        <v>-1842.43</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>14028.743484</v>
+        <v>14028.743484000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.896873</v>
+        <v>3.8968729999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.450000</v>
+        <v>2369.4499999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2739.700000</v>
+        <v>-2739.7</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>14040.007629</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.900002</v>
+        <v>3.9000020000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2854.460000</v>
+        <v>2854.46</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3722.150000</v>
+        <v>-3722.15</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>14052.194861</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.903387</v>
+        <v>3.9033869999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4301.010000</v>
+        <v>4301.01</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6080.840000</v>
+        <v>-6080.84</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>13878.206227</v>
+        <v>13878.206227000001</v>
       </c>
       <c r="B16" s="1">
         <v>3.855057</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.290000</v>
+        <v>1244.29</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.536000</v>
+        <v>-307.536</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>13888.861285</v>
+        <v>13888.861285000001</v>
       </c>
       <c r="G16" s="1">
-        <v>3.858017</v>
+        <v>3.8580169999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.757000</v>
+        <v>-264.75700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>13899.670568</v>
       </c>
       <c r="L16" s="1">
-        <v>3.861020</v>
+        <v>3.8610199999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.160000</v>
+        <v>1304.1600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.279000</v>
+        <v>-202.279</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>13910.228221</v>
+        <v>13910.228220999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.863952</v>
+        <v>3.8639519999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.600000</v>
+        <v>1315.6</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.504000</v>
+        <v>-184.50399999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>13920.730699</v>
       </c>
       <c r="V16" s="1">
-        <v>3.866870</v>
+        <v>3.86687</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.490000</v>
+        <v>1328.49</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.211000</v>
+        <v>-171.21100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>13931.158125</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.869766</v>
+        <v>3.8697659999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1345.620000</v>
+        <v>1345.62</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.251000</v>
+        <v>-169.251</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>13941.621697</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.872673</v>
+        <v>3.8726729999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1358.360000</v>
+        <v>1358.36</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.989000</v>
+        <v>-178.989</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>13952.125473</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.875590</v>
+        <v>3.8755899999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1378.920000</v>
+        <v>1378.92</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.191000</v>
+        <v>-209.191</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>13962.945203</v>
+        <v>13962.945202999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.878596</v>
+        <v>3.8785959999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1400.490000</v>
+        <v>1400.49</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.344000</v>
+        <v>-253.34399999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>13973.657797</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.881572</v>
+        <v>3.8815719999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1425.060000</v>
+        <v>1425.06</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.761000</v>
+        <v>-313.76100000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>13984.633271</v>
+        <v>13984.633271000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.884620</v>
+        <v>3.88462</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.240000</v>
+        <v>-366.24</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>13995.674216</v>
+        <v>13995.674215999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.887687</v>
+        <v>3.8876870000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG16" s="1">
-        <v>-616.145000</v>
+        <v>-616.14499999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>14006.582271</v>
+        <v>14006.582270999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>3.890717</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.880000</v>
+        <v>1683.88</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1064.500000</v>
+        <v>-1064.5</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>14018.211932</v>
@@ -4274,90 +4690,90 @@
         <v>3.893948</v>
       </c>
       <c r="BP16" s="1">
-        <v>1978.480000</v>
+        <v>1978.48</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1842.360000</v>
+        <v>-1842.36</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>14029.173052</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.896993</v>
+        <v>3.8969930000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.880000</v>
+        <v>2369.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2740.370000</v>
+        <v>-2740.37</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>14040.429230</v>
+        <v>14040.42923</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.900119</v>
+        <v>3.9001190000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.790000</v>
+        <v>2853.79</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3722.530000</v>
+        <v>-3722.53</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>14052.735012</v>
+        <v>14052.735011999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.903538</v>
+        <v>3.9035380000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4283.130000</v>
+        <v>4283.13</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6086.650000</v>
+        <v>-6086.65</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>13878.552403</v>
       </c>
       <c r="B17" s="1">
-        <v>3.855153</v>
+        <v>3.8551530000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.590000</v>
+        <v>1244.5899999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.677000</v>
+        <v>-307.67700000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>13889.205013</v>
+        <v>13889.205013000001</v>
       </c>
       <c r="G17" s="1">
-        <v>3.858113</v>
+        <v>3.8581129999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.210000</v>
+        <v>1270.21</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.503000</v>
+        <v>-264.50299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>13900.018262</v>
@@ -4366,28 +4782,28 @@
         <v>3.861116</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.813000</v>
+        <v>-202.81299999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>13910.890607</v>
+        <v>13910.890606999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.864136</v>
+        <v>3.8641359999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.600000</v>
+        <v>1315.6</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.400000</v>
+        <v>-184.4</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>13921.394874</v>
@@ -4396,118 +4812,118 @@
         <v>3.867054</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.680000</v>
+        <v>1328.68</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.292000</v>
+        <v>-171.292</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>13931.546461</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.869874</v>
+        <v>3.8698739999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1345.650000</v>
+        <v>1345.65</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.907000</v>
+        <v>-168.90700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>13941.966446</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.872768</v>
+        <v>3.8727680000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1358.390000</v>
+        <v>1358.39</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.043000</v>
+        <v>-179.04300000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>13952.472177</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.875687</v>
+        <v>3.8756870000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1378.920000</v>
+        <v>1378.92</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.179000</v>
+        <v>-209.179</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>13963.305299</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.878696</v>
+        <v>3.8786960000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1400.510000</v>
+        <v>1400.51</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.332000</v>
+        <v>-253.33199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>13974.084357</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.881690</v>
+        <v>3.8816899999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.753000</v>
+        <v>-313.75299999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>13985.062807</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.884740</v>
+        <v>3.8847399999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.212000</v>
+        <v>-366.21199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>13995.976279</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.887771</v>
+        <v>3.8877709999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1529.690000</v>
+        <v>1529.69</v>
       </c>
       <c r="BG17" s="1">
-        <v>-616.163000</v>
+        <v>-616.16300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>14006.959691</v>
@@ -4516,43 +4932,43 @@
         <v>3.890822</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1064.540000</v>
+        <v>-1064.54</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>14018.637001</v>
+        <v>14018.637000999999</v>
       </c>
       <c r="BO17" s="1">
         <v>3.894066</v>
       </c>
       <c r="BP17" s="1">
-        <v>1978.380000</v>
+        <v>1978.38</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1842.320000</v>
+        <v>-1842.32</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>14029.583709</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.897107</v>
+        <v>3.8971070000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.700000</v>
+        <v>2369.6999999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2741.020000</v>
+        <v>-2741.02</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>14040.860252</v>
@@ -4561,45 +4977,45 @@
         <v>3.900239</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.370000</v>
+        <v>2854.37</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3722.450000</v>
+        <v>-3722.45</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>14053.273132</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.903687</v>
+        <v>3.9036870000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4297.760000</v>
+        <v>4297.76</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6099.060000</v>
+        <v>-6099.06</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>13878.892658</v>
+        <v>13878.892658000001</v>
       </c>
       <c r="B18" s="1">
         <v>3.855248</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.440000</v>
+        <v>1244.44</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.272000</v>
+        <v>-308.27199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>13889.553204</v>
@@ -4608,28 +5024,28 @@
         <v>3.858209</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.120000</v>
+        <v>1270.1199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.470000</v>
+        <v>-265.47000000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>13900.671989</v>
       </c>
       <c r="L18" s="1">
-        <v>3.861298</v>
+        <v>3.8612980000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.280000</v>
+        <v>1304.28</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.209000</v>
+        <v>-202.209</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>13911.270999</v>
@@ -4638,375 +5054,375 @@
         <v>3.864242</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.730000</v>
+        <v>1315.73</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.431000</v>
+        <v>-184.43100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>13921.766378</v>
       </c>
       <c r="V18" s="1">
-        <v>3.867157</v>
+        <v>3.8671570000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.410000</v>
+        <v>1328.41</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.298000</v>
+        <v>-171.298</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>13931.893167</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.869970</v>
+        <v>3.8699699999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1345.590000</v>
+        <v>1345.59</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.163000</v>
+        <v>-169.16300000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>13942.309646</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.872864</v>
+        <v>3.8728639999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1358.420000</v>
+        <v>1358.42</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.981000</v>
+        <v>-178.98099999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>13952.820369</v>
+        <v>13952.820368999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.875783</v>
+        <v>3.8757830000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1378.850000</v>
+        <v>1378.85</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.206000</v>
+        <v>-209.20599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>13963.735330</v>
+        <v>13963.73533</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.878815</v>
+        <v>3.8788149999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.361000</v>
+        <v>-253.36099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>13974.383942</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.881773</v>
+        <v>3.8817729999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.738000</v>
+        <v>-313.738</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>13985.349990</v>
+        <v>13985.349990000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.884819</v>
+        <v>3.8848189999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1444.380000</v>
+        <v>1444.38</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.214000</v>
+        <v>-366.214</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>13996.337367</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.887871</v>
+        <v>3.8878710000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1529.610000</v>
+        <v>1529.61</v>
       </c>
       <c r="BG18" s="1">
-        <v>-616.118000</v>
+        <v>-616.11800000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>14007.342633</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.890929</v>
+        <v>3.8909289999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.860000</v>
+        <v>1683.86</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1064.500000</v>
+        <v>-1064.5</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>14019.032842</v>
+        <v>14019.032842000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.894176</v>
+        <v>3.8941759999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1978.330000</v>
+        <v>1978.33</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1842.200000</v>
+        <v>-1842.2</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>14030.017210</v>
+        <v>14030.01721</v>
       </c>
       <c r="BT18" s="1">
         <v>3.897227</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.590000</v>
+        <v>2369.59</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2741.690000</v>
+        <v>-2741.69</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>14041.273916</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.900354</v>
+        <v>3.9003540000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2854.610000</v>
+        <v>2854.61</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3722.740000</v>
+        <v>-3722.74</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>14053.820221</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.903839</v>
+        <v>3.9038390000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4291.520000</v>
+        <v>4291.5200000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6075.000000</v>
+        <v>-6075</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>13879.549361</v>
+        <v>13879.549360999999</v>
       </c>
       <c r="B19" s="1">
-        <v>3.855430</v>
+        <v>3.8554300000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.540000</v>
+        <v>1244.54</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.933000</v>
+        <v>-307.93299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>13890.231699</v>
       </c>
       <c r="G19" s="1">
-        <v>3.858398</v>
+        <v>3.8583980000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.820000</v>
+        <v>1270.82</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.170000</v>
+        <v>-265.17</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>13901.053910</v>
+        <v>13901.053910000001</v>
       </c>
       <c r="L19" s="1">
-        <v>3.861404</v>
+        <v>3.8614039999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.520000</v>
+        <v>1304.52</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.403000</v>
+        <v>-202.40299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>13911.618731</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.864339</v>
+        <v>3.8643390000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.740000</v>
+        <v>1315.74</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.412000</v>
+        <v>-184.41200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>13922.112587</v>
       </c>
       <c r="V19" s="1">
-        <v>3.867253</v>
+        <v>3.8672529999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.460000</v>
+        <v>1328.46</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.282000</v>
+        <v>-171.28200000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>13932.240860</v>
+        <v>13932.24086</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.870067</v>
+        <v>3.8700670000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1345.780000</v>
+        <v>1345.78</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.018000</v>
+        <v>-169.018</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>13942.742667</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.872984</v>
+        <v>3.8729840000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1358.380000</v>
+        <v>1358.38</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.010000</v>
+        <v>-179.01</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>13953.252384</v>
+        <v>13953.252383999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.875903</v>
+        <v>3.8759030000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1378.860000</v>
+        <v>1378.86</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.196000</v>
+        <v>-209.196</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>13964.027970</v>
+        <v>13964.027969999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.878897</v>
+        <v>3.8788969999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1400.450000</v>
+        <v>1400.45</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.357000</v>
+        <v>-253.357</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>13974.747012</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.881874</v>
+        <v>3.8818739999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1425.010000</v>
+        <v>1425.01</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.753000</v>
+        <v>-313.75299999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>13985.710581</v>
+        <v>13985.710580999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.884920</v>
+        <v>3.8849200000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.320000</v>
+        <v>1444.32</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.232000</v>
+        <v>-366.23200000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>13996.700439</v>
@@ -5015,73 +5431,73 @@
         <v>3.887972</v>
       </c>
       <c r="BF19" s="1">
-        <v>1529.610000</v>
+        <v>1529.61</v>
       </c>
       <c r="BG19" s="1">
-        <v>-616.120000</v>
+        <v>-616.12</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>14008.097017</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.891138</v>
+        <v>3.8911380000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.890000</v>
+        <v>1683.89</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1064.460000</v>
+        <v>-1064.46</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>14019.452429</v>
+        <v>14019.452429000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.894292</v>
+        <v>3.8942920000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1978.430000</v>
+        <v>1978.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1842.240000</v>
+        <v>-1842.24</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>14030.444266</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.897346</v>
+        <v>3.8973460000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2369.530000</v>
+        <v>2369.5300000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2742.320000</v>
+        <v>-2742.32</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>14041.696013</v>
+        <v>14041.696013000001</v>
       </c>
       <c r="BY19" s="1">
         <v>3.900471</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2854.460000</v>
+        <v>2854.46</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3722.920000</v>
+        <v>-3722.92</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>14054.357387</v>
@@ -5090,60 +5506,60 @@
         <v>3.903988</v>
       </c>
       <c r="CE19" s="1">
-        <v>4285.290000</v>
+        <v>4285.29</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6096.360000</v>
+        <v>-6096.36</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>13879.919377</v>
       </c>
       <c r="B20" s="1">
-        <v>3.855533</v>
+        <v>3.8555329999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="D20" s="1">
-        <v>-307.960000</v>
+        <v>-307.95999999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>13890.585844</v>
+        <v>13890.585843999999</v>
       </c>
       <c r="G20" s="1">
-        <v>3.858496</v>
+        <v>3.8584960000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.075000</v>
+        <v>-265.07499999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>13901.398629</v>
+        <v>13901.398628999999</v>
       </c>
       <c r="L20" s="1">
-        <v>3.861500</v>
+        <v>3.8614999999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.200000</v>
+        <v>1304.2</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.313000</v>
+        <v>-202.31299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>13911.969367</v>
@@ -5152,58 +5568,58 @@
         <v>3.864436</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.630000</v>
+        <v>1315.63</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.500000</v>
+        <v>-184.5</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>13922.457273</v>
       </c>
       <c r="V20" s="1">
-        <v>3.867349</v>
+        <v>3.8673489999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.480000</v>
+        <v>1328.48</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.253000</v>
+        <v>-171.25299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>13932.656540</v>
+        <v>13932.65654</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.870182</v>
+        <v>3.8701819999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1345.670000</v>
+        <v>1345.67</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.305000</v>
+        <v>-169.30500000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>13943.023920</v>
+        <v>13943.02392</v>
       </c>
       <c r="AF20" s="1">
         <v>3.873062</v>
       </c>
       <c r="AG20" s="1">
-        <v>1358.360000</v>
+        <v>1358.36</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.033000</v>
+        <v>-179.03299999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>13953.535136</v>
@@ -5212,58 +5628,58 @@
         <v>3.875982</v>
       </c>
       <c r="AL20" s="1">
-        <v>1378.910000</v>
+        <v>1378.91</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.169000</v>
+        <v>-209.16900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>13964.383601</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.878995</v>
+        <v>3.8789950000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1400.490000</v>
+        <v>1400.49</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.357000</v>
+        <v>-253.357</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>13975.104132</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.881973</v>
+        <v>3.8819729999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.790000</v>
+        <v>-313.79000000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>13986.069685</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.885019</v>
+        <v>3.8850189999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.186000</v>
+        <v>-366.18599999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>13997.420425</v>
@@ -5272,73 +5688,73 @@
         <v>3.888172</v>
       </c>
       <c r="BF20" s="1">
-        <v>1529.590000</v>
+        <v>1529.59</v>
       </c>
       <c r="BG20" s="1">
-        <v>-616.162000</v>
+        <v>-616.16200000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>14008.483895</v>
+        <v>14008.483894999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.891246</v>
+        <v>3.8912460000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1064.430000</v>
+        <v>-1064.43</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>14019.851213</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.894403</v>
+        <v>3.8944030000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1978.420000</v>
+        <v>1978.42</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1842.210000</v>
+        <v>-1842.21</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>14030.856441</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.897460</v>
+        <v>3.8974600000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2369.090000</v>
+        <v>2369.09</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2742.960000</v>
+        <v>-2742.96</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>14042.449769</v>
+        <v>14042.449769000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.900680</v>
+        <v>3.9006799999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.060000</v>
+        <v>2854.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3721.910000</v>
+        <v>-3721.91</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>14055.249194</v>
@@ -5347,769 +5763,769 @@
         <v>3.904236</v>
       </c>
       <c r="CE20" s="1">
-        <v>4287.400000</v>
+        <v>4287.3999999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6078.610000</v>
+        <v>-6078.61</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>13880.259136</v>
+        <v>13880.259136000001</v>
       </c>
       <c r="B21" s="1">
-        <v>3.855628</v>
+        <v>3.8556279999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.624000</v>
+        <v>-307.62400000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>13890.929075</v>
       </c>
       <c r="G21" s="1">
-        <v>3.858591</v>
+        <v>3.8585910000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.526000</v>
+        <v>-265.52600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>13901.745833</v>
+        <v>13901.745833000001</v>
       </c>
       <c r="L21" s="1">
         <v>3.861596</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.410000</v>
+        <v>1304.4100000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.619000</v>
+        <v>-202.619</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>13912.384520</v>
+        <v>13912.38452</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.864551</v>
+        <v>3.8645510000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.610000</v>
+        <v>1315.61</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.558000</v>
+        <v>-184.55799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>13922.900202</v>
+        <v>13922.900202000001</v>
       </c>
       <c r="V21" s="1">
-        <v>3.867472</v>
+        <v>3.8674719999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.480000</v>
+        <v>1328.48</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.364000</v>
+        <v>-171.364</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>13932.952655</v>
+        <v>13932.952654999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.870265</v>
+        <v>3.8702649999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1345.520000</v>
+        <v>1345.52</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.182000</v>
+        <v>-169.18199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>13943.367117</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.873158</v>
+        <v>3.8731580000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1358.390000</v>
+        <v>1358.39</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.067000</v>
+        <v>-179.06700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>13953.881807</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.876078</v>
+        <v>3.8760780000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1378.860000</v>
+        <v>1378.86</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.190000</v>
+        <v>-209.19</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>13964.748161</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.879097</v>
+        <v>3.8790969999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1400.500000</v>
+        <v>1400.5</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.354000</v>
+        <v>-253.35400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>13975.843666</v>
+        <v>13975.843666000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.882179</v>
+        <v>3.8821789999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.731000</v>
+        <v>-313.73099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>13986.795860</v>
+        <v>13986.79586</v>
       </c>
       <c r="AZ21" s="1">
         <v>3.885221</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.360000</v>
+        <v>1444.36</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.176000</v>
+        <v>-366.17599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>13997.783206</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.888273</v>
+        <v>3.8882729999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1529.670000</v>
+        <v>1529.67</v>
       </c>
       <c r="BG21" s="1">
-        <v>-616.137000</v>
+        <v>-616.13699999999994</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>14008.858871</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.891350</v>
+        <v>3.8913500000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.840000</v>
+        <v>1683.84</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1064.450000</v>
+        <v>-1064.45</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>14020.271817</v>
+        <v>14020.271817000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.894520</v>
+        <v>3.89452</v>
       </c>
       <c r="BP21" s="1">
-        <v>1978.270000</v>
+        <v>1978.27</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1842.240000</v>
+        <v>-1842.24</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>14031.600936</v>
+        <v>14031.600936000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.897667</v>
+        <v>3.8976670000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.370000</v>
+        <v>2368.37</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2743.210000</v>
+        <v>-2743.21</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>14042.587820</v>
+        <v>14042.587820000001</v>
       </c>
       <c r="BY21" s="1">
         <v>3.900719</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.040000</v>
+        <v>2854.04</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3722.370000</v>
+        <v>-3722.37</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>14055.435689</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.904288</v>
+        <v>3.9042880000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4287.460000</v>
+        <v>4287.46</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6075.860000</v>
+        <v>-6075.86</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>13880.602907</v>
       </c>
       <c r="B22" s="1">
-        <v>3.855723</v>
+        <v>3.8557229999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.568000</v>
+        <v>-307.56799999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>13891.529235</v>
       </c>
       <c r="G22" s="1">
-        <v>3.858758</v>
+        <v>3.8587579999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.520000</v>
+        <v>1270.52</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.968000</v>
+        <v>-264.96800000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>13902.162996</v>
+        <v>13902.162995999999</v>
       </c>
       <c r="L22" s="1">
-        <v>3.861712</v>
+        <v>3.8617119999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.440000</v>
+        <v>1304.44</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.455000</v>
+        <v>-202.45500000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>13912.678150</v>
+        <v>13912.67815</v>
       </c>
       <c r="Q22" s="1">
         <v>3.864633</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.580000</v>
+        <v>1315.58</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.403000</v>
+        <v>-184.40299999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>13923.154152</v>
+        <v>13923.154151999999</v>
       </c>
       <c r="V22" s="1">
         <v>3.867543</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.510000</v>
+        <v>1328.51</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.330000</v>
+        <v>-171.33</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>13933.299850</v>
+        <v>13933.299849999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.870361</v>
+        <v>3.8703609999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1345.610000</v>
+        <v>1345.61</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.189000</v>
+        <v>-169.18899999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>13943.710381</v>
+        <v>13943.710381000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.873253</v>
+        <v>3.8732530000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1358.380000</v>
+        <v>1358.38</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.048000</v>
+        <v>-179.048</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>13954.227024</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.876174</v>
+        <v>3.8761739999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1378.900000</v>
+        <v>1378.9</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.168000</v>
+        <v>-209.16800000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>13965.468385</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.879297</v>
+        <v>3.8792970000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1400.480000</v>
+        <v>1400.48</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.351000</v>
+        <v>-253.351</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>13976.235010</v>
+        <v>13976.23501</v>
       </c>
       <c r="AU22" s="1">
         <v>3.882288</v>
       </c>
       <c r="AV22" s="1">
-        <v>1425.050000</v>
+        <v>1425.05</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.719000</v>
+        <v>-313.71899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>13987.173283</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.885326</v>
+        <v>3.8853260000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.140000</v>
+        <v>-366.14</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>13998.144789</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.888374</v>
+        <v>3.8883740000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG22" s="1">
-        <v>-616.140000</v>
+        <v>-616.14</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>14009.568182</v>
+        <v>14009.568182000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.891547</v>
+        <v>3.8915470000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.830000</v>
+        <v>1683.83</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1064.410000</v>
+        <v>-1064.4100000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>14020.974152</v>
+        <v>14020.974152000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.894715</v>
+        <v>3.8947150000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1978.310000</v>
+        <v>1978.31</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1842.260000</v>
+        <v>-1842.26</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>14031.711545</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.897698</v>
+        <v>3.8976980000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.440000</v>
+        <v>2367.44</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2743.230000</v>
+        <v>-2743.23</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>14043.014874</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.900837</v>
+        <v>3.9008370000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2854.140000</v>
+        <v>2854.14</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3722.700000</v>
+        <v>-3722.7</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>14055.955032</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.904432</v>
+        <v>3.9044319999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4279.200000</v>
+        <v>4279.2</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6092.460000</v>
+        <v>-6092.46</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>13881.034385</v>
+        <v>13881.034385000001</v>
       </c>
       <c r="B23" s="1">
-        <v>3.855843</v>
+        <v>3.8558430000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-307.661000</v>
+        <v>-307.661</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>13891.960753</v>
+        <v>13891.960752999999</v>
       </c>
       <c r="G23" s="1">
-        <v>3.858878</v>
+        <v>3.8588779999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.350000</v>
+        <v>1269.3499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.969000</v>
+        <v>-264.96899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>13902.460563</v>
+        <v>13902.460563000001</v>
       </c>
       <c r="L23" s="1">
-        <v>3.861795</v>
+        <v>3.8617949999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.090000</v>
+        <v>1304.0899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.178000</v>
+        <v>-202.178</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>13913.028065</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.864730</v>
+        <v>3.8647300000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.570000</v>
+        <v>1315.57</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.439000</v>
+        <v>-184.43899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>13923.497880</v>
+        <v>13923.497880000001</v>
       </c>
       <c r="V23" s="1">
-        <v>3.867638</v>
+        <v>3.8676379999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.440000</v>
+        <v>1328.44</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.271000</v>
+        <v>-171.27099999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>13933.648043</v>
+        <v>13933.648042999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.870458</v>
+        <v>3.8704580000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1345.560000</v>
+        <v>1345.56</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.201000</v>
+        <v>-169.20099999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>13944.398796</v>
+        <v>13944.398795999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.873444</v>
+        <v>3.8734440000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1358.440000</v>
+        <v>1358.44</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.034000</v>
+        <v>-179.03399999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>13954.925886</v>
+        <v>13954.925886000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.876368</v>
+        <v>3.8763679999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>1378.880000</v>
+        <v>1378.88</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.176000</v>
+        <v>-209.17599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>13965.828944</v>
+        <v>13965.828944000001</v>
       </c>
       <c r="AP23" s="1">
         <v>3.879397</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1400.460000</v>
+        <v>1400.46</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.337000</v>
+        <v>-253.33699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>13976.601553</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.882389</v>
+        <v>3.8823889999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1425.020000</v>
+        <v>1425.02</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.733000</v>
+        <v>-313.733</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>13987.560660</v>
+        <v>13987.560659999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.885434</v>
+        <v>3.8854340000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1444.350000</v>
+        <v>1444.35</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.182000</v>
+        <v>-366.18200000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>13998.811941</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.888559</v>
+        <v>3.8885589999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1529.590000</v>
+        <v>1529.59</v>
       </c>
       <c r="BG23" s="1">
-        <v>-616.058000</v>
+        <v>-616.05799999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>14010.009589</v>
+        <v>14010.009588999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.891669</v>
+        <v>3.8916689999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.810000</v>
+        <v>1683.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1064.430000</v>
+        <v>-1064.43</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>14021.102614</v>
+        <v>14021.102613999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.894751</v>
+        <v>3.8947509999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1978.230000</v>
+        <v>1978.23</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1842.150000</v>
+        <v>-1842.15</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>14032.150008</v>
+        <v>14032.150008000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.897819</v>
+        <v>3.8978190000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2366.850000</v>
+        <v>2366.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2743.310000</v>
+        <v>-2743.31</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>14043.430057</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.900953</v>
+        <v>3.9009529999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.580000</v>
+        <v>2854.58</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3721.270000</v>
+        <v>-3721.27</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>14056.472855</v>
@@ -6118,16 +6534,16 @@
         <v>3.904576</v>
       </c>
       <c r="CE23" s="1">
-        <v>4295.640000</v>
+        <v>4295.6400000000003</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6098.940000</v>
+        <v>-6098.94</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>13881.303252</v>
       </c>
@@ -6135,43 +6551,43 @@
         <v>3.855918</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.507000</v>
+        <v>-307.50700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>13892.304513</v>
+        <v>13892.304512999999</v>
       </c>
       <c r="G24" s="1">
-        <v>3.858973</v>
+        <v>3.8589730000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.230000</v>
+        <v>1269.23</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.680000</v>
+        <v>-265.68</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>13902.802334</v>
       </c>
       <c r="L24" s="1">
-        <v>3.861890</v>
+        <v>3.8618899999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.640000</v>
+        <v>1304.6400000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.442000</v>
+        <v>-202.44200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>13913.378005</v>
@@ -6180,58 +6596,58 @@
         <v>3.864827</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.690000</v>
+        <v>1315.69</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.489000</v>
+        <v>-184.489</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>13924.055917</v>
       </c>
       <c r="V24" s="1">
-        <v>3.867793</v>
+        <v>3.8677929999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.500000</v>
+        <v>1328.5</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.220000</v>
+        <v>-171.22</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>13934.347865</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.870652</v>
+        <v>3.8706520000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1345.520000</v>
+        <v>1345.52</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.120000</v>
+        <v>-169.12</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>13944.741865</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.873539</v>
+        <v>3.8735390000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1358.360000</v>
+        <v>1358.36</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.911000</v>
+        <v>-178.911</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>13955.274077</v>
@@ -6240,255 +6656,255 @@
         <v>3.876465</v>
       </c>
       <c r="AL24" s="1">
-        <v>1378.860000</v>
+        <v>1378.86</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.160000</v>
+        <v>-209.16</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>13966.186591</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.879496</v>
+        <v>3.8794960000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1400.470000</v>
+        <v>1400.47</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.340000</v>
+        <v>-253.34</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>13977.287024</v>
+        <v>13977.287023999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.882580</v>
+        <v>3.8825799999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1425.010000</v>
+        <v>1425.01</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.715000</v>
+        <v>-313.71499999999997</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>13988.250097</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.885625</v>
+        <v>3.8856250000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.330000</v>
+        <v>1444.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.213000</v>
+        <v>-366.21300000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>13999.252852</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.888681</v>
+        <v>3.8886810000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1529.550000</v>
+        <v>1529.55</v>
       </c>
       <c r="BG24" s="1">
-        <v>-616.122000</v>
+        <v>-616.12199999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>14010.410358</v>
+        <v>14010.410357999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.891781</v>
+        <v>3.8917809999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.860000</v>
+        <v>1683.86</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1064.390000</v>
+        <v>-1064.3900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>14021.518759</v>
+        <v>14021.518759000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.894866</v>
+        <v>3.8948659999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1978.340000</v>
+        <v>1978.34</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1842.060000</v>
+        <v>-1842.06</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>14032.566651</v>
+        <v>14032.566650999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.897935</v>
+        <v>3.8979349999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2366.100000</v>
+        <v>2366.1</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2742.760000</v>
+        <v>-2742.76</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>14043.884856</v>
+        <v>14043.884856000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.901079</v>
+        <v>3.9010790000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2853.720000</v>
+        <v>2853.72</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3722.300000</v>
+        <v>-3722.3</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>14056.991143</v>
+        <v>14056.991142999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.904720</v>
+        <v>3.9047200000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>4302.030000</v>
+        <v>4302.03</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6084.020000</v>
+        <v>-6084.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>13881.645455</v>
       </c>
       <c r="B25" s="1">
-        <v>3.856013</v>
+        <v>3.8560129999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.830000</v>
+        <v>1244.83</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.760000</v>
+        <v>-307.76</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>13892.654160</v>
+        <v>13892.65416</v>
       </c>
       <c r="G25" s="1">
-        <v>3.859071</v>
+        <v>3.8590710000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.610000</v>
+        <v>1269.6099999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.849000</v>
+        <v>-265.84899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>13903.149010</v>
+        <v>13903.149009999999</v>
       </c>
       <c r="L25" s="1">
-        <v>3.861986</v>
+        <v>3.8619859999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.420000</v>
+        <v>1304.42</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.198000</v>
+        <v>-202.19800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>13914.069924</v>
+        <v>13914.069923999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.865019</v>
+        <v>3.8650190000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.680000</v>
+        <v>1315.68</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.573000</v>
+        <v>-184.57300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>13924.184870</v>
+        <v>13924.184869999999</v>
       </c>
       <c r="V25" s="1">
         <v>3.867829</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.540000</v>
+        <v>1328.54</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.275000</v>
+        <v>-171.27500000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>13934.693610</v>
+        <v>13934.69361</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.870748</v>
+        <v>3.8707479999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1345.540000</v>
+        <v>1345.54</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.262000</v>
+        <v>-169.262</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>13945.084764</v>
+        <v>13945.084763999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.873635</v>
+        <v>3.8736350000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1358.380000</v>
+        <v>1358.38</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.004000</v>
+        <v>-179.00399999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>13955.626237</v>
@@ -6497,58 +6913,58 @@
         <v>3.876563</v>
       </c>
       <c r="AL25" s="1">
-        <v>1378.930000</v>
+        <v>1378.93</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.186000</v>
+        <v>-209.18600000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>13966.864590</v>
+        <v>13966.864589999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.879685</v>
+        <v>3.8796849999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1400.470000</v>
+        <v>1400.47</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.324000</v>
+        <v>-253.32400000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>13977.694267</v>
+        <v>13977.694267000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.882693</v>
+        <v>3.8826930000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1425.040000</v>
+        <v>1425.04</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.716000</v>
+        <v>-313.71600000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>13988.637475</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.885733</v>
+        <v>3.8857330000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.380000</v>
+        <v>1444.38</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.208000</v>
+        <v>-366.20800000000003</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>13999.614963</v>
@@ -6557,13 +6973,13 @@
         <v>3.888782</v>
       </c>
       <c r="BF25" s="1">
-        <v>1529.580000</v>
+        <v>1529.58</v>
       </c>
       <c r="BG25" s="1">
-        <v>-616.113000</v>
+        <v>-616.11300000000006</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>14010.788804</v>
@@ -6572,105 +6988,105 @@
         <v>3.891886</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.880000</v>
+        <v>1683.88</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1064.370000</v>
+        <v>-1064.3699999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>14021.910101</v>
+        <v>14021.910100999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.894975</v>
+        <v>3.8949750000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1978.100000</v>
+        <v>1978.1</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1842.120000</v>
+        <v>-1842.12</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>14032.996678</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.898055</v>
+        <v>3.8980549999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>2365.550000</v>
+        <v>2365.5500000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2742.350000</v>
+        <v>-2742.35</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>14044.334767</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.901204</v>
+        <v>3.9012039999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2854.150000</v>
+        <v>2854.15</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3721.780000</v>
+        <v>-3721.78</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>14057.507514</v>
+        <v>14057.507514000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.904863</v>
+        <v>3.9048630000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>4299.670000</v>
+        <v>4299.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6089.530000</v>
+        <v>-6089.53</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>13881.987229</v>
       </c>
       <c r="B26" s="1">
-        <v>3.856108</v>
+        <v>3.8561079999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.570000</v>
+        <v>1244.57</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.452000</v>
+        <v>-307.452</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>13893.341650</v>
+        <v>13893.34165</v>
       </c>
       <c r="G26" s="1">
-        <v>3.859262</v>
+        <v>3.8592620000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.340000</v>
+        <v>1269.3399999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.312000</v>
+        <v>-265.31200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>13903.836465</v>
@@ -6679,13 +7095,13 @@
         <v>3.862177</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.445000</v>
+        <v>-202.44499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>13914.418613</v>
@@ -6694,73 +7110,73 @@
         <v>3.865116</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.600000</v>
+        <v>1315.6</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.557000</v>
+        <v>-184.55699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>13924.530551</v>
       </c>
       <c r="V26" s="1">
-        <v>3.867925</v>
+        <v>3.8679250000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.440000</v>
+        <v>1328.44</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.275000</v>
+        <v>-171.27500000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>13935.045736</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.870846</v>
+        <v>3.8708459999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1345.690000</v>
+        <v>1345.69</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.158000</v>
+        <v>-169.15799999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>13945.734522</v>
+        <v>13945.734522000001</v>
       </c>
       <c r="AF26" s="1">
         <v>3.873815</v>
       </c>
       <c r="AG26" s="1">
-        <v>1358.360000</v>
+        <v>1358.36</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.927000</v>
+        <v>-178.92699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>13956.319148</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.876755</v>
+        <v>3.8767550000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1378.910000</v>
+        <v>1378.91</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.159000</v>
+        <v>-209.15899999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>13967.293661</v>
@@ -6769,135 +7185,136 @@
         <v>3.879804</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1400.460000</v>
+        <v>1400.46</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.291000</v>
+        <v>-253.291</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>13978.061279</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.882795</v>
+        <v>3.8827950000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1425.030000</v>
+        <v>1425.03</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.731000</v>
+        <v>-313.73099999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>13989.158778</v>
+        <v>13989.158778000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.885877</v>
+        <v>3.8858769999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.370000</v>
+        <v>1444.37</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.122000</v>
+        <v>-366.12200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>13999.977010</v>
+        <v>13999.977010000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.888883</v>
+        <v>3.8888829999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG26" s="1">
-        <v>-616.090000</v>
+        <v>-616.09</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>14011.208917</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.892002</v>
+        <v>3.8920020000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.820000</v>
+        <v>1683.82</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1064.350000</v>
+        <v>-1064.3499999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>14022.726020</v>
+        <v>14022.72602</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.895202</v>
+        <v>3.8952019999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1978.310000</v>
+        <v>1978.31</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1842.110000</v>
+        <v>-1842.11</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>14033.428230</v>
+        <v>14033.42823</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.898175</v>
+        <v>3.8981750000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>2365.110000</v>
+        <v>2365.11</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2741.630000</v>
+        <v>-2741.63</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>14044.755335</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.901321</v>
+        <v>3.9013209999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2854.790000</v>
+        <v>2854.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3721.760000</v>
+        <v>-3721.76</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>14058.061510</v>
+        <v>14058.06151</v>
       </c>
       <c r="CD26" s="1">
         <v>3.905017</v>
       </c>
       <c r="CE26" s="1">
-        <v>4292.650000</v>
+        <v>4292.6499999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6099.550000</v>
+        <v>-6099.55</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>